--- a/rules_table_2.xlsx
+++ b/rules_table_2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -19,6 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Предпочтительность наведения в заднюю полусферу (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предпочтительность наведения в переднюю полусферу (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимость наведения в заднюю полусферу (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необходимость наведения в переднюю полусферу (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требование наведение за минимальное время (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полусфера относительно цели (передняя/задняя)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требование к скрытности (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип системы самонаведения (радиолокационная/тепловая)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прямой метод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод маневра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод перехвата</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +127,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,14 +157,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rules_table_2.xlsx
+++ b/rules_table_2.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Методы</t>
+  </si>
   <si>
     <t xml:space="preserve">Предпочтительность наведения в заднюю полусферу (0/1)</t>
   </si>
@@ -46,13 +49,31 @@
     <t xml:space="preserve">Тип системы самонаведения (радиолокационная/тепловая)</t>
   </si>
   <si>
+    <t xml:space="preserve">Скорость истребителя больше скорости воздушной цели (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой запас топлива (0/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод маневра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">передняя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод перехвата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">радиолокационная</t>
+  </si>
+  <si>
     <t xml:space="preserve">Прямой метод</t>
   </si>
   <si>
-    <t xml:space="preserve">Метод маневра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метод перехвата</t>
+    <t xml:space="preserve">задняя</t>
   </si>
 </sst>
 </file>
@@ -85,12 +106,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -138,6 +165,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -149,6 +192,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -157,63 +260,331 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
